--- a/xlsx/密歇根州_intext.xlsx
+++ b/xlsx/密歇根州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>密歇根州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_密歇根州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_密歇根州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -53,19 +53,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Michigan</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E6%AF%94%C2%B7%E5%8F%B2%E6%88%B4%E6%AF%94%E6%8B%BF</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -245,13 +242,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>五大湖地區</t>
+    <t>五大湖地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E4%B8%8A%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>密西根上半島</t>
+    <t>密西根上半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A8%81%E8%AB%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>基威諾縣</t>
+    <t>基威诺县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -401,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>底特律破產</t>
+    <t>底特律破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -419,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>密西根州議會大廈</t>
+    <t>密西根州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E4%B8%8B%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>密西根下半島</t>
+    <t>密西根下半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%80%A5%E6%B5%81%E5%9F%8E</t>
@@ -503,37 +497,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%9F%BA%E8%AB%BE</t>
   </si>
   <si>
-    <t>薩基諾</t>
+    <t>萨基诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E9%A0%93%E7%B8%A3_(%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>霍頓縣 (密西根州)</t>
+    <t>霍顿县 (密西根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%96%E7%91%AA%E9%BA%97_(%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇聖瑪麗 (密西根州)</t>
+    <t>苏圣玛丽 (密西根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%9D%88%E6%B5%B7%E8%8C%A8_(%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯特靈海茨 (密西根州)</t>
+    <t>斯特灵海茨 (密西根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E7%95%99%E7%B4%80</t>
   </si>
   <si>
-    <t>志留紀</t>
+    <t>志留纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8F%A0%E7%BA%AA</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>克萊斯勒集團</t>
+    <t>克莱斯勒集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%88%A9</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -635,25 +629,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -677,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%B8%B8%E9%9D%92%E8%97%A4</t>
@@ -695,19 +689,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北密歇根大學</t>
+    <t>北密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E9%A6%AC%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>艾爾馬學院</t>
+    <t>艾尔马学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>安德魯斯大學</t>
+    <t>安德鲁斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E6%96%87%E5%AD%A6%E9%99%A2</t>
@@ -725,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蘇必利爾湖州立大學</t>
+    <t>苏必利尔湖州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞倫斯理工大學</t>
+    <t>劳伦斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E5%A4%A7%E5%AD%A6</t>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%A2%85%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>底特律梅西大學</t>
+    <t>底特律梅西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6%E8%BF%AA%E5%B0%94%E4%BC%AF%E6%81%A9%E5%88%86%E6%A0%A1</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西密歇根大學</t>
+    <t>西密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E9%83%BD%E6%9C%83%E9%9F%8B%E6%81%A9%E9%83%A1%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>底特律都會韋恩郡機場</t>
+    <t>底特律都会韦恩郡机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/75%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>75號州際公路</t>
+    <t>75号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/69%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/96%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLB</t>
@@ -845,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E8%9D%A0%E9%AD%9F</t>
   </si>
   <si>
-    <t>坦帕灣蝠魟</t>
+    <t>坦帕湾蝠魟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E8%97%8D%E9%B3%A5</t>
   </si>
   <si>
-    <t>多倫多藍鳥</t>
+    <t>多伦多蓝鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E7%B4%85%E7%BF%BC%E9%9A%8A</t>
   </si>
   <si>
-    <t>底特律紅翼隊</t>
+    <t>底特律红翼队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E9%9B%84%E9%B9%BF%E9%98%9F</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -941,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1025,15 +1019,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
   </si>
   <si>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1055,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1199,19 +1190,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1265,25 +1256,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1331,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1355,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1897,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1926,10 +1917,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1955,10 +1946,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -1984,10 +1975,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2013,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>24</v>
@@ -2042,10 +2033,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2071,10 +2062,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2100,10 +2091,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2129,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2158,10 +2149,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>7</v>
@@ -2187,10 +2178,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2216,10 +2207,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2245,10 +2236,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>36</v>
@@ -2274,10 +2265,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2303,10 +2294,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2332,10 +2323,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2361,10 +2352,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2390,10 +2381,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2419,10 +2410,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>36</v>
@@ -2448,10 +2439,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2477,10 +2468,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2506,10 +2497,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2535,10 +2526,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2564,10 +2555,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2593,10 +2584,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2622,10 +2613,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2651,10 +2642,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2680,10 +2671,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2709,10 +2700,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2738,10 +2729,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2767,10 +2758,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2796,10 +2787,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>19</v>
@@ -2825,10 +2816,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2854,10 +2845,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2883,10 +2874,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2912,10 +2903,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2941,10 +2932,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2970,10 +2961,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2999,10 +2990,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3028,10 +3019,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3057,10 +3048,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>16</v>
@@ -3086,10 +3077,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3115,10 +3106,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -3144,10 +3135,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3173,10 +3164,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3202,10 +3193,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3231,10 +3222,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3260,10 +3251,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3289,10 +3280,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
         <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3318,10 +3309,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3347,10 +3338,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3376,10 +3367,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3405,10 +3396,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3434,10 +3425,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3463,10 +3454,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3492,10 +3483,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3521,10 +3512,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3550,10 +3541,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3579,10 +3570,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3608,10 +3599,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3637,10 +3628,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3666,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3695,10 +3686,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3724,10 +3715,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3753,10 +3744,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3782,10 +3773,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3811,10 +3802,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3840,10 +3831,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3869,10 +3860,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3898,10 +3889,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3927,10 +3918,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3956,10 +3947,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3985,10 +3976,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4014,10 +4005,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4043,10 +4034,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4072,10 +4063,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4101,10 +4092,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4130,10 +4121,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4159,10 +4150,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4188,10 +4179,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4217,10 +4208,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4246,10 +4237,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4275,10 +4266,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4304,10 +4295,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4333,10 +4324,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4362,10 +4353,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
@@ -4391,10 +4382,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4420,10 +4411,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4449,10 +4440,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4478,10 +4469,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4507,10 +4498,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4536,10 +4527,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
@@ -4565,10 +4556,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4594,10 +4585,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4623,10 +4614,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4652,10 +4643,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4681,10 +4672,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4710,10 +4701,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4739,10 +4730,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4768,10 +4759,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4797,10 +4788,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4826,10 +4817,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4855,10 +4846,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -4884,10 +4875,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4913,10 +4904,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4942,10 +4933,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4971,10 +4962,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5000,10 +4991,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5029,10 +5020,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5058,10 +5049,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5087,10 +5078,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5116,10 +5107,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5145,10 +5136,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5174,10 +5165,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5203,10 +5194,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5232,10 +5223,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5261,10 +5252,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5290,10 +5281,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5319,10 +5310,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5348,10 +5339,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F126" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5377,10 +5368,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5406,10 +5397,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5435,10 +5426,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5464,10 +5455,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5493,10 +5484,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5522,10 +5513,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5551,10 +5542,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5580,10 +5571,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5609,10 +5600,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5638,10 +5629,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5667,10 +5658,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5696,10 +5687,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5725,10 +5716,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5754,10 +5745,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5783,10 +5774,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5812,10 +5803,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5841,10 +5832,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5870,10 +5861,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5899,10 +5890,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5928,10 +5919,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5957,10 +5948,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5986,10 +5977,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6015,10 +6006,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6044,10 +6035,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6073,10 +6064,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6102,10 +6093,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6131,10 +6122,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6160,10 +6151,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>97</v>
@@ -6189,10 +6180,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6218,10 +6209,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F156" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6247,10 +6238,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6276,10 +6267,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F158" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6305,10 +6296,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6334,10 +6325,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6363,10 +6354,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6392,10 +6383,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6421,10 +6412,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6450,10 +6441,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6479,10 +6470,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6508,10 +6499,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6537,10 +6528,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6566,10 +6557,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F168" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6595,10 +6586,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6624,10 +6615,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6653,10 +6644,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6682,10 +6673,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6711,10 +6702,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6740,10 +6731,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6769,10 +6760,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6798,10 +6789,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6827,10 +6818,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6856,10 +6847,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6885,10 +6876,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6914,10 +6905,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6943,10 +6934,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6972,10 +6963,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7001,10 +6992,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7030,10 +7021,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7059,10 +7050,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7088,10 +7079,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7117,10 +7108,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7146,10 +7137,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F188" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G188" t="n">
         <v>5</v>
@@ -7175,10 +7166,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7204,10 +7195,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7233,10 +7224,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7262,10 +7253,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7291,10 +7282,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7320,10 +7311,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7349,10 +7340,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7378,10 +7369,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7407,10 +7398,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7436,10 +7427,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7465,10 +7456,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7494,10 +7485,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7523,10 +7514,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7552,10 +7543,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>64</v>
+      </c>
+      <c r="F202" t="s">
         <v>65</v>
-      </c>
-      <c r="F202" t="s">
-        <v>66</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -7581,10 +7572,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7610,10 +7601,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7639,10 +7630,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7668,10 +7659,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7697,10 +7688,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7726,10 +7717,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7755,10 +7746,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7784,10 +7775,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7813,10 +7804,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7842,10 +7833,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7871,10 +7862,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7900,10 +7891,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7929,10 +7920,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7958,10 +7949,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7987,10 +7978,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8016,10 +8007,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8045,10 +8036,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8074,10 +8065,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8103,10 +8094,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8132,10 +8123,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8161,10 +8152,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8190,10 +8181,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8219,10 +8210,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8248,10 +8239,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8277,10 +8268,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8306,10 +8297,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8335,10 +8326,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8364,10 +8355,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8393,10 +8384,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8422,10 +8413,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
